--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18451\Desktop\databaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294991B2-1AFA-4C6B-87E4-65EFB1B9E9C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31418FD4-9E46-4129-A18A-3C4211413709}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,11 +106,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1986-05-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
+    <t>1999-08-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据平台事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法务专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律事务处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,11 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18361361324</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schunyu@hnust.com</t>
+    <t>1072677403@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,99 +138,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1996-09-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏开发策划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18762345718</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangtao@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1985-04-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务事业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务专员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务相关业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19726251433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13325637966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjun@aliyun.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +252,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -663,114 +638,106 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{B04BB6C9-3DF1-41AE-B27A-88F8CE1EF084}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{84DB6F2B-549D-477F-A029-0CE01B6015B4}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{43A3F0A5-14ED-4279-A875-5CF35BFD9351}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{B44AB1DE-C26F-449D-918F-902535B4CD5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
